--- a/5 改版后自动化网页提交/5.11/刘晨-主题提交 - 2月11日.xlsx
+++ b/5 改版后自动化网页提交/5.11/刘晨-主题提交 - 2月11日.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet name="提交版" sheetId="1" r:id="rId1"/>
     <sheet name="已通过" sheetId="2" r:id="rId2"/>
+    <sheet name="测试" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">已通过!$A$1:$H$26</definedName>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="99">
   <si>
     <r>
       <rPr>
@@ -322,83 +323,114 @@
     <t>Y</t>
   </si>
   <si>
+    <t>贰陆马洛的可靠性介绍以及在军事、太空领域的应用</t>
+  </si>
+  <si>
+    <t>贰陆马洛制冷片质量认证情况分析</t>
+  </si>
+  <si>
+    <t>贰陆马洛系统设计经验指导</t>
+  </si>
+  <si>
+    <t>制冷片赛贝克效应入门</t>
+  </si>
+  <si>
+    <t>2016.07.08</t>
+  </si>
+  <si>
+    <t>带你走进帕尔帖热电效应</t>
+  </si>
+  <si>
+    <t>温差发电：什么是能量收集</t>
+  </si>
+  <si>
+    <t>温差发电中的电源适配器介绍</t>
+  </si>
+  <si>
+    <t>贰陆马洛：可定制化、低成本与优化设计</t>
+  </si>
+  <si>
+    <t>贰陆马洛：助力火星探测器</t>
+  </si>
+  <si>
+    <t>贰陆马洛制冷片在饮料制冷领域应用</t>
+  </si>
+  <si>
+    <t>带你走进热电模块</t>
+  </si>
+  <si>
+    <t>多级制冷片应用</t>
+  </si>
+  <si>
+    <t>基于单片机的温控系统设计</t>
+  </si>
+  <si>
+    <t>制冷片在PCR技术中的应用</t>
+  </si>
+  <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>厂牌</t>
+  </si>
+  <si>
+    <t>主题</t>
+  </si>
+  <si>
+    <t>参考链接</t>
+  </si>
+  <si>
+    <t>判断为新文章的理由</t>
+  </si>
+  <si>
+    <t>提交人</t>
+  </si>
+  <si>
+    <t>文章来源</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否通过</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.marlow.com/miniaturization</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>温差发电还能灭蚊子？不知道你就OUT了</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>带你走进贰陆马洛的能量收集系统</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>贰陆马洛的可靠性介绍以及在军事、太空领域的应用</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>贰陆马洛半导体制冷微型化技术介绍</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>贰陆马洛温差发电技术原理介绍</t>
-  </si>
-  <si>
-    <t>贰陆马洛的可靠性介绍以及在军事、太空领域的应用</t>
-  </si>
-  <si>
-    <t>贰陆马洛制冷片质量认证情况分析</t>
-  </si>
-  <si>
-    <t>贰陆马洛系统设计经验指导</t>
-  </si>
-  <si>
-    <t>制冷片赛贝克效应入门</t>
-  </si>
-  <si>
-    <t>2016.07.08</t>
-  </si>
-  <si>
-    <t>带你走进帕尔帖热电效应</t>
-  </si>
-  <si>
-    <t>温差发电：什么是能量收集</t>
-  </si>
-  <si>
-    <t>温差发电还能灭蚊子？不知道你就OUT了</t>
-  </si>
-  <si>
-    <t>温差发电中的电源适配器介绍</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.marlow.com/historic-reliability</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.marlow.com/thermoelectric-power-generation</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>贰陆马洛：可定制化、低成本与优化设计</t>
-  </si>
-  <si>
-    <t>贰陆马洛：助力火星探测器</t>
-  </si>
-  <si>
-    <t>贰陆马洛制冷片在饮料制冷领域应用</t>
-  </si>
-  <si>
-    <t>带你走进热电模块</t>
-  </si>
-  <si>
-    <t>多级制冷片应用</t>
-  </si>
-  <si>
-    <t>基于单片机的温控系统设计</t>
-  </si>
-  <si>
-    <t>制冷片在PCR技术中的应用</t>
-  </si>
-  <si>
-    <t>带你走进贰陆马洛的能量收集系统</t>
-  </si>
-  <si>
-    <t>序号</t>
-  </si>
-  <si>
-    <t>厂牌</t>
-  </si>
-  <si>
-    <t>主题</t>
-  </si>
-  <si>
-    <t>参考链接</t>
-  </si>
-  <si>
-    <t>判断为新文章的理由</t>
-  </si>
-  <si>
-    <t>提交人</t>
-  </si>
-  <si>
-    <t>文章来源</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否通过</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.marlow.com/quality-distinction</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -406,7 +438,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -440,6 +472,21 @@
       <sz val="9"/>
       <name val="等线"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -504,7 +551,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -518,6 +565,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1503,7 +1552,7 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1517,28 +1566,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" t="s">
         <v>84</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" t="s">
         <v>85</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>86</v>
       </c>
-      <c r="D1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>88</v>
-      </c>
-      <c r="G1" t="s">
-        <v>89</v>
-      </c>
-      <c r="H1" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -1600,14 +1649,14 @@
       <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
-        <v>64</v>
+      <c r="C4" s="5" t="s">
+        <v>93</v>
       </c>
       <c r="D4" t="s">
         <v>61</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>89</v>
       </c>
       <c r="F4" t="s">
         <v>9</v>
@@ -1626,14 +1675,14 @@
       <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" t="s">
-        <v>66</v>
+      <c r="C5" s="6" t="s">
+        <v>94</v>
       </c>
       <c r="D5" t="s">
         <v>61</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="F5" t="s">
         <v>9</v>
@@ -1652,14 +1701,14 @@
       <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="C6" t="s">
-        <v>67</v>
+      <c r="C6" s="6" t="s">
+        <v>66</v>
       </c>
       <c r="D6" t="s">
         <v>61</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="F6" t="s">
         <v>9</v>
@@ -1678,8 +1727,8 @@
       <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="C7" t="s">
-        <v>67</v>
+      <c r="C7" s="6" t="s">
+        <v>92</v>
       </c>
       <c r="D7" t="s">
         <v>61</v>
@@ -1705,7 +1754,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D8" t="s">
         <v>61</v>
@@ -1731,7 +1780,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D9" t="s">
         <v>61</v>
@@ -1756,8 +1805,8 @@
       <c r="B10" t="s">
         <v>8</v>
       </c>
-      <c r="C10" t="s">
-        <v>69</v>
+      <c r="C10" s="6" t="s">
+        <v>68</v>
       </c>
       <c r="D10" t="s">
         <v>61</v>
@@ -1783,7 +1832,7 @@
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D11" t="s">
         <v>61</v>
@@ -1792,7 +1841,7 @@
         <v>30</v>
       </c>
       <c r="F11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G11" t="s">
         <v>62</v>
@@ -1809,7 +1858,7 @@
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D12" t="s">
         <v>61</v>
@@ -1818,7 +1867,7 @@
         <v>33</v>
       </c>
       <c r="F12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G12" t="s">
         <v>62</v>
@@ -1835,7 +1884,7 @@
         <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D13" t="s">
         <v>61</v>
@@ -1844,7 +1893,7 @@
         <v>35</v>
       </c>
       <c r="F13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G13" t="s">
         <v>62</v>
@@ -1861,7 +1910,7 @@
         <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="D14" t="s">
         <v>61</v>
@@ -1870,7 +1919,7 @@
         <v>36</v>
       </c>
       <c r="F14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G14" t="s">
         <v>62</v>
@@ -1896,7 +1945,7 @@
         <v>39</v>
       </c>
       <c r="F15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G15" t="s">
         <v>62</v>
@@ -1913,7 +1962,7 @@
         <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D16" t="s">
         <v>61</v>
@@ -1922,7 +1971,7 @@
         <v>41</v>
       </c>
       <c r="F16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G16" t="s">
         <v>62</v>
@@ -1938,14 +1987,14 @@
       <c r="B17" t="s">
         <v>8</v>
       </c>
-      <c r="C17" t="s">
-        <v>76</v>
+      <c r="C17" s="5" t="s">
+        <v>97</v>
       </c>
       <c r="D17" t="s">
         <v>61</v>
       </c>
       <c r="E17" t="s">
-        <v>42</v>
+        <v>98</v>
       </c>
       <c r="F17" t="s">
         <v>9</v>
@@ -1964,8 +2013,8 @@
       <c r="B18" t="s">
         <v>8</v>
       </c>
-      <c r="C18" t="s">
-        <v>76</v>
+      <c r="C18" s="6" t="s">
+        <v>74</v>
       </c>
       <c r="D18" t="s">
         <v>61</v>
@@ -1991,7 +2040,7 @@
         <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D19" t="s">
         <v>61</v>
@@ -2017,7 +2066,7 @@
         <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D20" t="s">
         <v>61</v>
@@ -2026,7 +2075,7 @@
         <v>46</v>
       </c>
       <c r="F20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G20" t="s">
         <v>62</v>
@@ -2043,7 +2092,7 @@
         <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D21" t="s">
         <v>61</v>
@@ -2052,7 +2101,7 @@
         <v>48</v>
       </c>
       <c r="F21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G21" t="s">
         <v>62</v>
@@ -2069,7 +2118,7 @@
         <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D22" t="s">
         <v>61</v>
@@ -2078,7 +2127,7 @@
         <v>51</v>
       </c>
       <c r="F22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G22" t="s">
         <v>62</v>
@@ -2095,7 +2144,7 @@
         <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D23" t="s">
         <v>61</v>
@@ -2104,7 +2153,7 @@
         <v>52</v>
       </c>
       <c r="F23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G23" t="s">
         <v>62</v>
@@ -2121,7 +2170,7 @@
         <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D24" t="s">
         <v>61</v>
@@ -2130,7 +2179,7 @@
         <v>55</v>
       </c>
       <c r="F24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G24" t="s">
         <v>62</v>
@@ -2147,7 +2196,7 @@
         <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D25" t="s">
         <v>61</v>
@@ -2156,7 +2205,7 @@
         <v>57</v>
       </c>
       <c r="F25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G25" t="s">
         <v>62</v>
@@ -2173,7 +2222,7 @@
         <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="D26" t="s">
         <v>61</v>
@@ -2182,7 +2231,7 @@
         <v>58</v>
       </c>
       <c r="F26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G26" t="s">
         <v>62</v>
@@ -2202,4 +2251,73 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>
--- a/5 改版后自动化网页提交/5.11/刘晨-主题提交 - 2月11日.xlsx
+++ b/5 改版后自动化网页提交/5.11/刘晨-主题提交 - 2月11日.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="提交版" sheetId="1" r:id="rId1"/>
     <sheet name="已通过" sheetId="2" r:id="rId2"/>
-    <sheet name="测试" sheetId="3" r:id="rId3"/>
+    <sheet name="红色为提交内容，其余不写了" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">已通过!$A$1:$H$26</definedName>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="130">
   <si>
     <r>
       <rPr>
@@ -317,121 +317,222 @@
     <t>N</t>
   </si>
   <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>贰陆马洛的可靠性介绍以及在军事、太空领域的应用</t>
+  </si>
+  <si>
+    <t>贰陆马洛制冷片质量认证情况分析</t>
+  </si>
+  <si>
+    <t>贰陆马洛系统设计经验指导</t>
+  </si>
+  <si>
+    <t>制冷片赛贝克效应入门</t>
+  </si>
+  <si>
+    <t>2016.07.08</t>
+  </si>
+  <si>
+    <t>带你走进帕尔帖热电效应</t>
+  </si>
+  <si>
+    <t>温差发电：什么是能量收集</t>
+  </si>
+  <si>
+    <t>温差发电中的电源适配器介绍</t>
+  </si>
+  <si>
+    <t>贰陆马洛：可定制化、低成本与优化设计</t>
+  </si>
+  <si>
+    <t>贰陆马洛：助力火星探测器</t>
+  </si>
+  <si>
+    <t>贰陆马洛制冷片在饮料制冷领域应用</t>
+  </si>
+  <si>
+    <t>带你走进热电模块</t>
+  </si>
+  <si>
+    <t>多级制冷片应用</t>
+  </si>
+  <si>
+    <t>基于单片机的温控系统设计</t>
+  </si>
+  <si>
+    <t>制冷片在PCR技术中的应用</t>
+  </si>
+  <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>厂牌</t>
+  </si>
+  <si>
+    <t>主题</t>
+  </si>
+  <si>
+    <t>参考链接</t>
+  </si>
+  <si>
+    <t>判断为新文章的理由</t>
+  </si>
+  <si>
+    <t>提交人</t>
+  </si>
+  <si>
+    <t>文章来源</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否通过</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.marlow.com/miniaturization</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>温差发电还能灭蚊子？不知道你就OUT了</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>带你走进贰陆马洛的能量收集系统</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>贰陆马洛的可靠性介绍以及在军事、太空领域的应用</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>贰陆马洛半导体制冷微型化技术介绍</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>贰陆马洛的可靠性介绍以及在军事、太空领域的应用</t>
-  </si>
-  <si>
-    <t>贰陆马洛制冷片质量认证情况分析</t>
-  </si>
-  <si>
-    <t>贰陆马洛系统设计经验指导</t>
-  </si>
-  <si>
-    <t>制冷片赛贝克效应入门</t>
-  </si>
-  <si>
-    <t>2016.07.08</t>
-  </si>
-  <si>
-    <t>带你走进帕尔帖热电效应</t>
-  </si>
-  <si>
-    <t>温差发电：什么是能量收集</t>
-  </si>
-  <si>
-    <t>温差发电中的电源适配器介绍</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>贰陆马洛温差发电技术原理介绍</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.marlow.com/historic-reliability</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.marlow.com/thermoelectric-power-generation</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>贰陆马洛：可定制化、低成本与优化设计</t>
-  </si>
-  <si>
-    <t>贰陆马洛：助力火星探测器</t>
-  </si>
-  <si>
-    <t>贰陆马洛制冷片在饮料制冷领域应用</t>
-  </si>
-  <si>
-    <t>带你走进热电模块</t>
-  </si>
-  <si>
-    <t>多级制冷片应用</t>
-  </si>
-  <si>
-    <t>基于单片机的温控系统设计</t>
-  </si>
-  <si>
-    <t>制冷片在PCR技术中的应用</t>
-  </si>
-  <si>
-    <t>序号</t>
-  </si>
-  <si>
-    <t>厂牌</t>
-  </si>
-  <si>
-    <t>主题</t>
-  </si>
-  <si>
-    <t>参考链接</t>
-  </si>
-  <si>
-    <t>判断为新文章的理由</t>
-  </si>
-  <si>
-    <t>提交人</t>
-  </si>
-  <si>
-    <t>文章来源</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否通过</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://blog.marlow.com/miniaturization</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>温差发电还能灭蚊子？不知道你就OUT了</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.marlow.com/quality-distinction</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://globenewswire.com/news-release/2018/01/08/1284982/0/en/II-VI-Incorporated-Introduces-the-EverGen-PowerStrap-Generator-for-Thermal-Energy-Harvesting-in-the-Oil-and-Gas-Industry.html</t>
+  </si>
+  <si>
+    <t>https://www.sekorm.com/doc/68648.html</t>
+  </si>
+  <si>
+    <t>https://www.sekorm.com/news/7750.html</t>
+  </si>
+  <si>
+    <t>https://www.marlow.com/products/power-generators/evergen-energy-harvesters</t>
   </si>
   <si>
     <t>带你走进贰陆马洛的能量收集系统</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>贰陆马洛的可靠性介绍以及在军事、太空领域的应用</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>贰陆马洛半导体制冷微型化技术介绍</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>贰陆马洛温差发电技术原理介绍</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://blog.marlow.com/historic-reliability</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://blog.marlow.com/thermoelectric-power-generation</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>贰陆马洛：可定制化、低成本与优化设计</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://blog.marlow.com/quality-distinction</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>原因</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己改写，介绍贰陆马洛的EverGen能量收集系统的应用，涉及从产品型号为近两年产品</t>
+  </si>
+  <si>
+    <t>https://www.sekorm.com/news/11466.html</t>
+  </si>
+  <si>
+    <t>http://www.eastwin.com.cn/news_show_32.html</t>
+  </si>
+  <si>
+    <t>https://patentimages.storage.googleapis.com/ad/a1/11/81bbf9095d5adf/CN102879128B.pdf</t>
+  </si>
+  <si>
+    <t>https://patentimages.storage.googleapis.com/7b/00/75/dceb310905fd70/CN104635801A.pdf</t>
+  </si>
+  <si>
+    <t>https://wenku.baidu.com/view/ac35233abb68a98271fefaff.html?re=view</t>
+  </si>
+  <si>
+    <t>自己改写，介绍贰陆马洛的热电技术在PCR医疗温控设备中的应用</t>
+  </si>
+  <si>
+    <t>https://www.marlow.com/products/thermoelectric-coolers/multi-stage</t>
+  </si>
+  <si>
+    <t>介绍贰陆马洛多级制冷片在探测器和传感器的应用</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.sekorm.com/news/8502.html</t>
+  </si>
+  <si>
+    <t>http://www.cas.cn/kxcb/kpwz/201105/t20110512_3131837.shtml</t>
+  </si>
+  <si>
+    <t>https://www.sekorm.com/news/7721.html</t>
+  </si>
+  <si>
+    <t>https://www.marlow.com/products/power-generators/thermoelectric-generator-teg-modules</t>
+  </si>
+  <si>
+    <t>介绍贰陆马洛的热电技术以及对未来新能源的意义</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.sekorm.com/news/7835.html</t>
+  </si>
+  <si>
+    <t>https://cdn2.hubspot.net/hubfs/547732/Data_Sheets/PL020-4-30.pdf</t>
+  </si>
+  <si>
+    <t>介绍贰陆马洛的热电技术在饮料制冷技术中的应用</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.sekorm.com/news/9641.html</t>
+  </si>
+  <si>
+    <t>https://cdn2.hubspot.net/hubfs/547732/Data_Sheets/CM30-1.9.pdf</t>
+  </si>
+  <si>
+    <t>自己改写，介绍贰陆马洛的热电技术在火星探测中的应用</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.sekorm.com/news/7736.html</t>
+  </si>
+  <si>
+    <t>https://www.bilibili.com/video/av14408787/</t>
+  </si>
+  <si>
+    <t>自己改写，介绍利用贰陆马洛的热电技术为小型设备充电</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.sekorm.com/news/7701.html</t>
+  </si>
+  <si>
+    <t>自己改写，介绍利用贰陆马洛的能量收集系统与水温差发电器</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://cdn2.hubspot.net/hubfs/547732/Data_Sheets/EHA-LXXLXX-R01-L1.pdf</t>
   </si>
 </sst>
 </file>
@@ -853,17 +954,17 @@
       <selection activeCell="H1" sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" customWidth="1"/>
-    <col min="4" max="4" width="50.44140625" customWidth="1"/>
-    <col min="5" max="5" width="15.5546875" customWidth="1"/>
-    <col min="6" max="6" width="42.44140625" customWidth="1"/>
-    <col min="7" max="7" width="22.77734375" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="3" max="3" width="9.625" customWidth="1"/>
+    <col min="4" max="4" width="50.5" customWidth="1"/>
+    <col min="5" max="5" width="15.5" customWidth="1"/>
+    <col min="6" max="6" width="42.5" customWidth="1"/>
+    <col min="7" max="7" width="22.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -889,7 +990,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -915,7 +1016,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -941,7 +1042,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -967,7 +1068,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -993,7 +1094,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1019,7 +1120,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1045,7 +1146,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5</v>
       </c>
@@ -1071,7 +1172,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>5</v>
       </c>
@@ -1097,7 +1198,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>6</v>
       </c>
@@ -1123,7 +1224,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>7</v>
       </c>
@@ -1149,7 +1250,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>8</v>
       </c>
@@ -1175,7 +1276,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>9</v>
       </c>
@@ -1201,7 +1302,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>10</v>
       </c>
@@ -1227,7 +1328,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>11</v>
       </c>
@@ -1253,7 +1354,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>12</v>
       </c>
@@ -1279,7 +1380,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>13</v>
       </c>
@@ -1305,7 +1406,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>13</v>
       </c>
@@ -1331,7 +1432,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>13</v>
       </c>
@@ -1357,7 +1458,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>14</v>
       </c>
@@ -1383,7 +1484,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>15</v>
       </c>
@@ -1409,7 +1510,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>16</v>
       </c>
@@ -1435,7 +1536,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>17</v>
       </c>
@@ -1461,7 +1562,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>18</v>
       </c>
@@ -1487,7 +1588,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>19</v>
       </c>
@@ -1513,7 +1614,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>20</v>
       </c>
@@ -1551,46 +1652,46 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C26" sqref="A1:H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" customWidth="1"/>
-    <col min="3" max="3" width="47.109375" customWidth="1"/>
-    <col min="5" max="5" width="88.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" width="4.625" customWidth="1"/>
+    <col min="2" max="2" width="11.625" customWidth="1"/>
+    <col min="3" max="3" width="47.125" customWidth="1"/>
+    <col min="5" max="5" width="88.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" t="s">
         <v>81</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>82</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" t="s">
         <v>83</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H1" t="s">
         <v>87</v>
       </c>
-      <c r="E1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G1" t="s">
-        <v>86</v>
-      </c>
-      <c r="H1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1616,7 +1717,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1642,7 +1743,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1650,13 +1751,13 @@
         <v>8</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D4" t="s">
         <v>61</v>
       </c>
       <c r="E4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F4" t="s">
         <v>9</v>
@@ -1665,10 +1766,10 @@
         <v>62</v>
       </c>
       <c r="H4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1676,13 +1777,13 @@
         <v>8</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D5" t="s">
         <v>61</v>
       </c>
       <c r="E5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F5" t="s">
         <v>9</v>
@@ -1691,10 +1792,10 @@
         <v>62</v>
       </c>
       <c r="H5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1702,13 +1803,13 @@
         <v>8</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D6" t="s">
         <v>61</v>
       </c>
       <c r="E6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F6" t="s">
         <v>9</v>
@@ -1717,10 +1818,10 @@
         <v>62</v>
       </c>
       <c r="H6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1728,7 +1829,7 @@
         <v>8</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D7" t="s">
         <v>61</v>
@@ -1743,10 +1844,10 @@
         <v>62</v>
       </c>
       <c r="H7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5</v>
       </c>
@@ -1754,7 +1855,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D8" t="s">
         <v>61</v>
@@ -1772,7 +1873,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>5</v>
       </c>
@@ -1780,7 +1881,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D9" t="s">
         <v>61</v>
@@ -1798,7 +1899,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>6</v>
       </c>
@@ -1806,7 +1907,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D10" t="s">
         <v>61</v>
@@ -1821,10 +1922,10 @@
         <v>62</v>
       </c>
       <c r="H10" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>7</v>
       </c>
@@ -1832,7 +1933,7 @@
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D11" t="s">
         <v>61</v>
@@ -1841,24 +1942,24 @@
         <v>30</v>
       </c>
       <c r="F11" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
         <v>70</v>
-      </c>
-      <c r="G11" t="s">
-        <v>62</v>
-      </c>
-      <c r="H11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>8</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>71</v>
       </c>
       <c r="D12" t="s">
         <v>61</v>
@@ -1867,16 +1968,16 @@
         <v>33</v>
       </c>
       <c r="F12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G12" t="s">
         <v>62</v>
       </c>
       <c r="H12" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>9</v>
       </c>
@@ -1884,7 +1985,7 @@
         <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D13" t="s">
         <v>61</v>
@@ -1893,24 +1994,24 @@
         <v>35</v>
       </c>
       <c r="F13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G13" t="s">
         <v>62</v>
       </c>
       <c r="H13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>10</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
       </c>
-      <c r="C14" t="s">
-        <v>90</v>
+      <c r="C14" s="5" t="s">
+        <v>89</v>
       </c>
       <c r="D14" t="s">
         <v>61</v>
@@ -1919,16 +2020,16 @@
         <v>36</v>
       </c>
       <c r="F14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G14" t="s">
         <v>62</v>
       </c>
       <c r="H14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>11</v>
       </c>
@@ -1945,16 +2046,16 @@
         <v>39</v>
       </c>
       <c r="F15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G15" t="s">
         <v>62</v>
       </c>
       <c r="H15" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>12</v>
       </c>
@@ -1962,7 +2063,7 @@
         <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D16" t="s">
         <v>61</v>
@@ -1971,16 +2072,16 @@
         <v>41</v>
       </c>
       <c r="F16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G16" t="s">
         <v>62</v>
       </c>
       <c r="H16" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>13</v>
       </c>
@@ -1988,13 +2089,13 @@
         <v>8</v>
       </c>
       <c r="C17" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" t="s">
         <v>97</v>
-      </c>
-      <c r="D17" t="s">
-        <v>61</v>
-      </c>
-      <c r="E17" t="s">
-        <v>98</v>
       </c>
       <c r="F17" t="s">
         <v>9</v>
@@ -2003,10 +2104,10 @@
         <v>62</v>
       </c>
       <c r="H17" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>13</v>
       </c>
@@ -2014,7 +2115,7 @@
         <v>8</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D18" t="s">
         <v>61</v>
@@ -2029,10 +2130,10 @@
         <v>62</v>
       </c>
       <c r="H18" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>13</v>
       </c>
@@ -2040,7 +2141,7 @@
         <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D19" t="s">
         <v>61</v>
@@ -2055,10 +2156,10 @@
         <v>62</v>
       </c>
       <c r="H19" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>14</v>
       </c>
@@ -2066,7 +2167,7 @@
         <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D20" t="s">
         <v>61</v>
@@ -2075,16 +2176,16 @@
         <v>46</v>
       </c>
       <c r="F20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G20" t="s">
         <v>62</v>
       </c>
       <c r="H20" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>15</v>
       </c>
@@ -2092,7 +2193,7 @@
         <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D21" t="s">
         <v>61</v>
@@ -2101,16 +2202,16 @@
         <v>48</v>
       </c>
       <c r="F21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G21" t="s">
         <v>62</v>
       </c>
       <c r="H21" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>16</v>
       </c>
@@ -2118,7 +2219,7 @@
         <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D22" t="s">
         <v>61</v>
@@ -2127,16 +2228,16 @@
         <v>51</v>
       </c>
       <c r="F22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G22" t="s">
         <v>62</v>
       </c>
       <c r="H22" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>17</v>
       </c>
@@ -2144,7 +2245,7 @@
         <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D23" t="s">
         <v>61</v>
@@ -2153,16 +2254,16 @@
         <v>52</v>
       </c>
       <c r="F23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G23" t="s">
         <v>62</v>
       </c>
       <c r="H23" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>18</v>
       </c>
@@ -2170,7 +2271,7 @@
         <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D24" t="s">
         <v>61</v>
@@ -2179,16 +2280,16 @@
         <v>55</v>
       </c>
       <c r="F24" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G24" t="s">
         <v>62</v>
       </c>
       <c r="H24" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>19</v>
       </c>
@@ -2196,7 +2297,7 @@
         <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D25" t="s">
         <v>61</v>
@@ -2205,16 +2306,16 @@
         <v>57</v>
       </c>
       <c r="F25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G25" t="s">
         <v>62</v>
       </c>
       <c r="H25" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>20</v>
       </c>
@@ -2222,7 +2323,7 @@
         <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D26" t="s">
         <v>61</v>
@@ -2231,13 +2332,13 @@
         <v>58</v>
       </c>
       <c r="F26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G26" t="s">
         <v>62</v>
       </c>
       <c r="H26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -2250,69 +2351,528 @@
   </autoFilter>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="40.5" customWidth="1"/>
+    <col min="5" max="5" width="97.25" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" t="s">
         <v>81</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>82</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" t="s">
         <v>83</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H1" t="s">
         <v>87</v>
       </c>
-      <c r="E1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G1" t="s">
-        <v>86</v>
-      </c>
-      <c r="H1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D2" t="s">
         <v>61</v>
       </c>
       <c r="E2" t="s">
-        <v>89</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4">
         <v>9</v>
       </c>
-      <c r="G2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H2" t="s">
-        <v>65</v>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E5" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E8" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" t="s">
+        <v>69</v>
+      </c>
+      <c r="G10" t="s">
+        <v>62</v>
+      </c>
+      <c r="H10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" t="s">
+        <v>69</v>
+      </c>
+      <c r="G12" t="s">
+        <v>62</v>
+      </c>
+      <c r="H12" t="s">
+        <v>64</v>
+      </c>
+      <c r="I12" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E13" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E14" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" t="s">
+        <v>69</v>
+      </c>
+      <c r="G15" t="s">
+        <v>62</v>
+      </c>
+      <c r="H15" t="s">
+        <v>64</v>
+      </c>
+      <c r="I15" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E16" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E18" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" t="s">
+        <v>69</v>
+      </c>
+      <c r="G19" t="s">
+        <v>62</v>
+      </c>
+      <c r="H19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E20" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="I20" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E21" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E22" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E23" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>17</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24" t="s">
+        <v>61</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F24" t="s">
+        <v>69</v>
+      </c>
+      <c r="G24" t="s">
+        <v>62</v>
+      </c>
+      <c r="H24" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E25" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="I25" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>18</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" t="s">
+        <v>78</v>
+      </c>
+      <c r="D27" t="s">
+        <v>61</v>
+      </c>
+      <c r="E27" t="s">
+        <v>55</v>
+      </c>
+      <c r="F27" t="s">
+        <v>69</v>
+      </c>
+      <c r="G27" t="s">
+        <v>62</v>
+      </c>
+      <c r="H27" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>19</v>
+      </c>
+      <c r="B28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D28" t="s">
+        <v>61</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F28" t="s">
+        <v>69</v>
+      </c>
+      <c r="G28" t="s">
+        <v>62</v>
+      </c>
+      <c r="H28" t="s">
+        <v>64</v>
+      </c>
+      <c r="I28" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E29" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E30" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E31" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E32" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E33" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E34" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>20</v>
+      </c>
+      <c r="B35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D35" t="s">
+        <v>61</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F35" t="s">
+        <v>69</v>
+      </c>
+      <c r="G35" t="s">
+        <v>62</v>
+      </c>
+      <c r="H35" t="s">
+        <v>64</v>
+      </c>
+      <c r="I35" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E36" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E37" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E38" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E39" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
